--- a/Frequency_Graphs.xlsx
+++ b/Frequency_Graphs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2749e557475184dd/Company Technical Assessments/WIM/Tower_Frequencies/WIM_Technical_Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70984E9E-6942-43CD-8F81-B4736F5D6058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{70984E9E-6942-43CD-8F81-B4736F5D6058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11ECF3BA-65D2-41F3-9957-F537B6BA7CA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{5D50CDB5-CF7B-4B49-AAE5-66E0D7113986}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5D50CDB5-CF7B-4B49-AAE5-66E0D7113986}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Tower ID</t>
   </si>
@@ -103,6 +104,21 @@
   <si>
     <t>FREQUENCY (Closest 4 Towers)</t>
   </si>
+  <si>
+    <t>CellTower</t>
+  </si>
+  <si>
+    <t>Easting</t>
+  </si>
+  <si>
+    <t>Northing</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
 </sst>
 </file>
 
@@ -143,8 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -511,7 +526,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1035,7 +1050,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2626,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861CB9D0-6D0C-43EE-9A0A-7D9575C2AAC5}">
   <dimension ref="E1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,1153 +2655,1636 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>110</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>110</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>111</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>111</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>112</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>112</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>110</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>110</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>111</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>111</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>110</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>110</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>112</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>111</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>112</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>112</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>113</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>113</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>110</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>110</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>113</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>113</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>114</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>110</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>113</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>113</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>111</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>111</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>112</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>110</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>110</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>110</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>113</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>111</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>114</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>112</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>115</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>113</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014B5A91-3EE4-453A-A2FA-4A9E7040ECD3}">
+  <dimension ref="D3:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>536660</v>
+      </c>
+      <c r="F4">
+        <v>183800</v>
+      </c>
+      <c r="G4">
+        <v>-3.0980000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>51.536569999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>537032</v>
+      </c>
+      <c r="F5">
+        <v>184006</v>
+      </c>
+      <c r="G5">
+        <v>-2.554E-2</v>
+      </c>
+      <c r="H5">
+        <v>51.538330000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>111</v>
+      </c>
+      <c r="J5" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>537109</v>
+      </c>
+      <c r="F6">
+        <v>183884</v>
+      </c>
+      <c r="G6">
+        <v>-2.4479999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>51.537210000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>112</v>
+      </c>
+      <c r="J6" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>537110</v>
+      </c>
+      <c r="F7">
+        <v>184695</v>
+      </c>
+      <c r="G7">
+        <v>-2.4150000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>51.544499999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>110</v>
+      </c>
+      <c r="J7" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>537206</v>
+      </c>
+      <c r="F8">
+        <v>184685</v>
+      </c>
+      <c r="G8">
+        <v>-2.2769999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>51.54439</v>
+      </c>
+      <c r="I8" s="1">
+        <v>111</v>
+      </c>
+      <c r="J8" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>537248</v>
+      </c>
+      <c r="F9">
+        <v>185016</v>
+      </c>
+      <c r="G9">
+        <v>-2.2040000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>51.547350000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>110</v>
+      </c>
+      <c r="J9" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>537250</v>
+      </c>
+      <c r="F10">
+        <v>185020</v>
+      </c>
+      <c r="G10">
+        <v>-2.2009999999999998E-2</v>
+      </c>
+      <c r="H10">
+        <v>51.54739</v>
+      </c>
+      <c r="I10" s="1">
+        <v>112</v>
+      </c>
+      <c r="J10" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>537267</v>
+      </c>
+      <c r="F11">
+        <v>184783</v>
+      </c>
+      <c r="G11">
+        <v>-2.1850000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>51.545250000000003</v>
+      </c>
+      <c r="I11" s="1">
+        <v>112</v>
+      </c>
+      <c r="J11" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>537269</v>
+      </c>
+      <c r="F12">
+        <v>183451</v>
+      </c>
+      <c r="G12">
+        <v>-2.2339999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>51.533279999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>113</v>
+      </c>
+      <c r="J12" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>537270</v>
+      </c>
+      <c r="F13">
+        <v>184140</v>
+      </c>
+      <c r="G13">
+        <v>-2.206E-2</v>
+      </c>
+      <c r="H13">
+        <v>51.539479999999998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>110</v>
+      </c>
+      <c r="J13" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>537356</v>
+      </c>
+      <c r="F14">
+        <v>184927</v>
+      </c>
+      <c r="G14">
+        <v>-2.052E-2</v>
+      </c>
+      <c r="H14">
+        <v>51.546529999999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>113</v>
+      </c>
+      <c r="J14" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>537380</v>
+      </c>
+      <c r="F15">
+        <v>184727</v>
+      </c>
+      <c r="G15">
+        <v>-2.0250000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>51.544719999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>114</v>
+      </c>
+      <c r="J15" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>537458</v>
+      </c>
+      <c r="F16">
+        <v>184495</v>
+      </c>
+      <c r="G16">
+        <v>-1.9210000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>51.542619999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>113</v>
+      </c>
+      <c r="J16" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>537604</v>
+      </c>
+      <c r="F17">
+        <v>184134</v>
+      </c>
+      <c r="G17">
+        <v>-1.7250000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>51.539340000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <v>111</v>
+      </c>
+      <c r="J17" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>537720</v>
+      </c>
+      <c r="F18">
+        <v>184057</v>
+      </c>
+      <c r="G18">
+        <v>-1.5610000000000001E-2</v>
+      </c>
+      <c r="H18">
+        <v>51.538620000000002</v>
+      </c>
+      <c r="I18" s="1">
+        <v>112</v>
+      </c>
+      <c r="J18" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>537905</v>
+      </c>
+      <c r="F19">
+        <v>184591</v>
+      </c>
+      <c r="G19">
+        <v>-1.273E-2</v>
+      </c>
+      <c r="H19">
+        <v>51.543370000000003</v>
+      </c>
+      <c r="I19" s="1">
+        <v>110</v>
+      </c>
+      <c r="J19" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>537910</v>
+      </c>
+      <c r="F20">
+        <v>184441</v>
+      </c>
+      <c r="G20">
+        <v>-1.272E-2</v>
+      </c>
+      <c r="H20">
+        <v>51.542020000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>113</v>
+      </c>
+      <c r="J20" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>537953</v>
+      </c>
+      <c r="F21">
+        <v>184295</v>
+      </c>
+      <c r="G21">
+        <v>-1.2160000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>51.540700000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>114</v>
+      </c>
+      <c r="J21" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>538050</v>
+      </c>
+      <c r="F22">
+        <v>184245</v>
+      </c>
+      <c r="G22">
+        <v>-1.078E-2</v>
+      </c>
+      <c r="H22">
+        <v>51.540230000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>115</v>
+      </c>
+      <c r="J22" s="1">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>